--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H2">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I2">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J2">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="O2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q2">
-        <v>9.164744315045999</v>
+        <v>7.690005176727556</v>
       </c>
       <c r="R2">
-        <v>82.482698835414</v>
+        <v>69.210046590548</v>
       </c>
       <c r="S2">
-        <v>0.06416155326623736</v>
+        <v>0.06651067219613827</v>
       </c>
       <c r="T2">
-        <v>0.07293716064103771</v>
+        <v>0.07208648586453778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H3">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I3">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J3">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
         <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q3">
-        <v>7.463481737390001</v>
+        <v>9.902736584517775</v>
       </c>
       <c r="R3">
-        <v>67.17133563651001</v>
+        <v>89.12462926066</v>
       </c>
       <c r="S3">
-        <v>0.05225116649015154</v>
+        <v>0.08564853360707979</v>
       </c>
       <c r="T3">
-        <v>0.05939774724841666</v>
+        <v>0.09282873865682609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H4">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I4">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J4">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q4">
-        <v>0.025176959928</v>
+        <v>0.033405428048</v>
       </c>
       <c r="R4">
-        <v>0.226592639352</v>
+        <v>0.300648852432</v>
       </c>
       <c r="S4">
-        <v>0.0001762616391654552</v>
+        <v>0.0002889227540699386</v>
       </c>
       <c r="T4">
-        <v>0.0002003695801645818</v>
+        <v>0.0003131441216799977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H5">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I5">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J5">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="N5">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="O5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P5">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q5">
-        <v>3.737403945174</v>
+        <v>1.214267166833333</v>
       </c>
       <c r="R5">
-        <v>22.424423671044</v>
+        <v>7.285603001</v>
       </c>
       <c r="S5">
-        <v>0.02616522993577084</v>
+        <v>0.01050216789660902</v>
       </c>
       <c r="T5">
-        <v>0.01982929529065543</v>
+        <v>0.007588400002868169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.186026</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H6">
-        <v>3.558078</v>
+        <v>13.179146</v>
       </c>
       <c r="I6">
-        <v>0.1428187553521992</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J6">
-        <v>0.1524379446999992</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007773333333333333</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N6">
-        <v>0.02332</v>
+        <v>14.660201</v>
       </c>
       <c r="O6">
-        <v>0.0004519295852621654</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P6">
-        <v>0.0004813233336965963</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q6">
-        <v>0.00921937544</v>
+        <v>21.46765881870511</v>
       </c>
       <c r="R6">
-        <v>0.08297437896</v>
+        <v>193.208929368346</v>
       </c>
       <c r="S6">
-        <v>6.454402087397804E-05</v>
+        <v>0.1856732714342642</v>
       </c>
       <c r="T6">
-        <v>7.337193972486101E-05</v>
+        <v>0.2012388871548002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>13.179146</v>
       </c>
       <c r="I7">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J7">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.727270999999999</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N7">
-        <v>23.181813</v>
+        <v>18.878545</v>
       </c>
       <c r="O7">
-        <v>0.4492515923977304</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P7">
-        <v>0.4784711627054499</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q7">
-        <v>33.946277563522</v>
+        <v>27.64478898028555</v>
       </c>
       <c r="R7">
-        <v>305.516498071698</v>
+        <v>248.80310082257</v>
       </c>
       <c r="S7">
-        <v>0.2376548457011114</v>
+        <v>0.2390991235433247</v>
       </c>
       <c r="T7">
-        <v>0.2701597572941598</v>
+        <v>0.2591436083926692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>13.179146</v>
       </c>
       <c r="I8">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J8">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.292848333333334</v>
+        <v>0.021228</v>
       </c>
       <c r="N8">
-        <v>18.878545</v>
+        <v>0.063684</v>
       </c>
       <c r="O8">
-        <v>0.3658564756519352</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P8">
-        <v>0.3896519817642028</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q8">
-        <v>27.64478898028556</v>
+        <v>0.09325563709600002</v>
       </c>
       <c r="R8">
-        <v>248.8031008225701</v>
+        <v>0.8393007338640002</v>
       </c>
       <c r="S8">
-        <v>0.1935386891023791</v>
+        <v>0.0008065657911525008</v>
       </c>
       <c r="T8">
-        <v>0.220009674621518</v>
+        <v>0.0008741829180627399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>13.179146</v>
       </c>
       <c r="I9">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J9">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.021228</v>
+        <v>0.771625</v>
       </c>
       <c r="N9">
-        <v>0.063684</v>
+        <v>1.54325</v>
       </c>
       <c r="O9">
-        <v>0.001234163109255392</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P9">
-        <v>0.001314433755709007</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q9">
-        <v>0.09325563709600002</v>
+        <v>3.389786177416667</v>
       </c>
       <c r="R9">
-        <v>0.8393007338640002</v>
+        <v>20.3387170645</v>
       </c>
       <c r="S9">
-        <v>0.0006528743542892688</v>
+        <v>0.0293181801676111</v>
       </c>
       <c r="T9">
-        <v>0.0007421703377350717</v>
+        <v>0.02118401463947496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.393048666666667</v>
+        <v>1.149467</v>
       </c>
       <c r="H10">
-        <v>13.179146</v>
+        <v>3.448401</v>
       </c>
       <c r="I10">
-        <v>0.5290016768392695</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J10">
-        <v>0.5646312220084034</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.151199</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N10">
-        <v>6.302398</v>
+        <v>14.660201</v>
       </c>
       <c r="O10">
-        <v>0.183205839255817</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P10">
-        <v>0.1300810984409417</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q10">
-        <v>13.84337056535134</v>
+        <v>5.617139087622333</v>
       </c>
       <c r="R10">
-        <v>83.06022339210801</v>
+        <v>50.55425178860099</v>
       </c>
       <c r="S10">
-        <v>0.09691619617307283</v>
+        <v>0.04858250260579768</v>
       </c>
       <c r="T10">
-        <v>0.07344784957290434</v>
+        <v>0.05265533743259997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.393048666666667</v>
+        <v>1.149467</v>
       </c>
       <c r="H11">
-        <v>13.179146</v>
+        <v>3.448401</v>
       </c>
       <c r="I11">
-        <v>0.5290016768392695</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J11">
-        <v>0.5646312220084034</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.007773333333333333</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N11">
-        <v>0.02332</v>
+        <v>18.878545</v>
       </c>
       <c r="O11">
-        <v>0.0004519295852621654</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P11">
-        <v>0.0004813233336965963</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q11">
-        <v>0.03414863163555556</v>
+        <v>7.233421495171664</v>
       </c>
       <c r="R11">
-        <v>0.3073376847200001</v>
+        <v>65.10079345654499</v>
       </c>
       <c r="S11">
-        <v>0.0002390715084169611</v>
+        <v>0.06256169077464685</v>
       </c>
       <c r="T11">
-        <v>0.0002717701820862677</v>
+        <v>0.06780644802970456</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H12">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I12">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J12">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.727270999999999</v>
+        <v>0.021228</v>
       </c>
       <c r="N12">
-        <v>23.181813</v>
+        <v>0.063684</v>
       </c>
       <c r="O12">
-        <v>0.4492515923977304</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P12">
-        <v>0.4784711627054499</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q12">
-        <v>6.070876370252999</v>
+        <v>0.024400885476</v>
       </c>
       <c r="R12">
-        <v>54.637887332277</v>
+        <v>0.219607969284</v>
       </c>
       <c r="S12">
-        <v>0.04250166117163242</v>
+        <v>0.0002110426791520539</v>
       </c>
       <c r="T12">
-        <v>0.04831476687484658</v>
+        <v>0.0002287350977696483</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H13">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I13">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J13">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.292848333333334</v>
+        <v>0.771625</v>
       </c>
       <c r="N13">
-        <v>18.878545</v>
+        <v>1.54325</v>
       </c>
       <c r="O13">
-        <v>0.3658564756519352</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P13">
-        <v>0.3896519817642028</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q13">
-        <v>4.943932243145</v>
+        <v>0.8869574738749999</v>
       </c>
       <c r="R13">
-        <v>44.49539018830501</v>
+        <v>5.321744843249999</v>
       </c>
       <c r="S13">
-        <v>0.03461202637616892</v>
+        <v>0.007671274133253417</v>
       </c>
       <c r="T13">
-        <v>0.03934603823313132</v>
+        <v>0.005542921921251959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.785643</v>
+        <v>1.6540555</v>
       </c>
       <c r="H14">
-        <v>2.356929</v>
+        <v>3.308111</v>
       </c>
       <c r="I14">
-        <v>0.09460547695511548</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J14">
-        <v>0.1009773851399054</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.021228</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N14">
-        <v>0.063684</v>
+        <v>14.660201</v>
       </c>
       <c r="O14">
-        <v>0.001234163109255392</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P14">
-        <v>0.001314433755709007</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q14">
-        <v>0.016677629604</v>
+        <v>8.082928698385167</v>
       </c>
       <c r="R14">
-        <v>0.150098666436</v>
+        <v>48.497572190311</v>
       </c>
       <c r="S14">
-        <v>0.0001167585895915147</v>
+        <v>0.06990905840609953</v>
       </c>
       <c r="T14">
-        <v>0.0001327280835911207</v>
+        <v>0.05051318015784583</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.785643</v>
+        <v>1.6540555</v>
       </c>
       <c r="H15">
-        <v>2.356929</v>
+        <v>3.308111</v>
       </c>
       <c r="I15">
-        <v>0.09460547695511548</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J15">
-        <v>0.1009773851399054</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.151199</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N15">
-        <v>6.302398</v>
+        <v>18.878545</v>
       </c>
       <c r="O15">
-        <v>0.183205839255817</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P15">
-        <v>0.1300810984409417</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q15">
-        <v>2.475717435957</v>
+        <v>10.40872039641583</v>
       </c>
       <c r="R15">
-        <v>14.854304615742</v>
+        <v>62.452322378495</v>
       </c>
       <c r="S15">
-        <v>0.01733227580375878</v>
+        <v>0.0900247755830345</v>
       </c>
       <c r="T15">
-        <v>0.01313524917669292</v>
+        <v>0.06504790382498846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.785643</v>
+        <v>1.6540555</v>
       </c>
       <c r="H16">
-        <v>2.356929</v>
+        <v>3.308111</v>
       </c>
       <c r="I16">
-        <v>0.09460547695511548</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J16">
-        <v>0.1009773851399054</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.007773333333333333</v>
+        <v>0.021228</v>
       </c>
       <c r="N16">
-        <v>0.02332</v>
+        <v>0.063684</v>
       </c>
       <c r="O16">
-        <v>0.0004519295852621654</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P16">
-        <v>0.0004813233336965963</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q16">
-        <v>0.00610706492</v>
+        <v>0.035112290154</v>
       </c>
       <c r="R16">
-        <v>0.05496358428000001</v>
+        <v>0.210673740924</v>
       </c>
       <c r="S16">
-        <v>4.275501396385469E-05</v>
+        <v>0.0003036853639001295</v>
       </c>
       <c r="T16">
-        <v>4.860277164350442E-05</v>
+        <v>0.0002194295538766661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H17">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I17">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J17">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.727270999999999</v>
+        <v>0.771625</v>
       </c>
       <c r="N17">
-        <v>23.181813</v>
+        <v>1.54325</v>
       </c>
       <c r="O17">
-        <v>0.4492515923977304</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P17">
-        <v>0.4784711627054499</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q17">
-        <v>12.1479152391285</v>
+        <v>1.2763105751875</v>
       </c>
       <c r="R17">
-        <v>72.88749143477101</v>
+        <v>5.105242300750001</v>
       </c>
       <c r="S17">
-        <v>0.08504646544360989</v>
+        <v>0.01103877986241932</v>
       </c>
       <c r="T17">
-        <v>0.06445238512512924</v>
+        <v>0.005317421314932556</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.5720835</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H18">
-        <v>3.144167</v>
+        <v>2.661044</v>
       </c>
       <c r="I18">
-        <v>0.1893069871821773</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J18">
-        <v>0.1347048477502636</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.292848333333334</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N18">
-        <v>18.878545</v>
+        <v>14.660201</v>
       </c>
       <c r="O18">
-        <v>0.3658564756519352</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P18">
-        <v>0.3896519817642028</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q18">
-        <v>9.892883032835837</v>
+        <v>4.334604434427112</v>
       </c>
       <c r="R18">
-        <v>59.35729819701501</v>
+        <v>39.011439909844</v>
       </c>
       <c r="S18">
-        <v>0.06925918714675745</v>
+        <v>0.03748989084046267</v>
       </c>
       <c r="T18">
-        <v>0.05248801087913544</v>
+        <v>0.04063279466135045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.5720835</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H19">
-        <v>3.144167</v>
+        <v>2.661044</v>
       </c>
       <c r="I19">
-        <v>0.1893069871821773</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J19">
-        <v>0.1347048477502636</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.021228</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N19">
-        <v>0.063684</v>
+        <v>18.878545</v>
       </c>
       <c r="O19">
-        <v>0.001234163109255392</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P19">
-        <v>0.001314433755709007</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q19">
-        <v>0.033372188538</v>
+        <v>5.581848766775555</v>
       </c>
       <c r="R19">
-        <v>0.200233131228</v>
+        <v>50.23663890098</v>
       </c>
       <c r="S19">
-        <v>0.0002336356999045266</v>
+        <v>0.04827727745866255</v>
       </c>
       <c r="T19">
-        <v>0.000177060598940589</v>
+        <v>0.05232452423333515</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.5720835</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H20">
-        <v>3.144167</v>
+        <v>2.661044</v>
       </c>
       <c r="I20">
-        <v>0.1893069871821773</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J20">
-        <v>0.1347048477502636</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.151199</v>
+        <v>0.021228</v>
       </c>
       <c r="N20">
-        <v>6.302398</v>
+        <v>0.063684</v>
       </c>
       <c r="O20">
-        <v>0.183205839255817</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P20">
-        <v>0.1300810984409417</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q20">
-        <v>4.953947953116501</v>
+        <v>0.018829547344</v>
       </c>
       <c r="R20">
-        <v>19.815791812466</v>
+        <v>0.169465926096</v>
       </c>
       <c r="S20">
-        <v>0.03468214546370097</v>
+        <v>0.0001628563079240199</v>
       </c>
       <c r="T20">
-        <v>0.01752255456067411</v>
+        <v>0.0001765091007424415</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8870146666666666</v>
+      </c>
+      <c r="H21">
+        <v>2.661044</v>
+      </c>
+      <c r="I21">
+        <v>0.09184975320144682</v>
+      </c>
+      <c r="J21">
+        <v>0.097411160916111</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.5720835</v>
-      </c>
-      <c r="H21">
-        <v>3.144167</v>
-      </c>
-      <c r="I21">
-        <v>0.1893069871821773</v>
-      </c>
-      <c r="J21">
-        <v>0.1347048477502636</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.007773333333333333</v>
+        <v>0.771625</v>
       </c>
       <c r="N21">
-        <v>0.02332</v>
+        <v>1.54325</v>
       </c>
       <c r="O21">
-        <v>0.0004519295852621654</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P21">
-        <v>0.0004813233336965963</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q21">
-        <v>0.01222032907333333</v>
+        <v>0.6844426921666666</v>
       </c>
       <c r="R21">
-        <v>0.07332197444000001</v>
+        <v>4.106656153</v>
       </c>
       <c r="S21">
-        <v>8.555342820447145E-05</v>
+        <v>0.005919728594397581</v>
       </c>
       <c r="T21">
-        <v>6.483658638424933E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H22">
-        <v>1.102837</v>
-      </c>
-      <c r="I22">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J22">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>7.727270999999999</v>
-      </c>
-      <c r="N22">
-        <v>23.181813</v>
-      </c>
-      <c r="O22">
-        <v>0.4492515923977304</v>
-      </c>
-      <c r="P22">
-        <v>0.4784711627054499</v>
-      </c>
-      <c r="Q22">
-        <v>2.840640122609</v>
-      </c>
-      <c r="R22">
-        <v>25.565761103481</v>
-      </c>
-      <c r="S22">
-        <v>0.01988706681513936</v>
-      </c>
-      <c r="T22">
-        <v>0.02260709277027656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H23">
-        <v>1.102837</v>
-      </c>
-      <c r="I23">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J23">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.292848333333334</v>
-      </c>
-      <c r="N23">
-        <v>18.878545</v>
-      </c>
-      <c r="O23">
-        <v>0.3658564756519352</v>
-      </c>
-      <c r="P23">
-        <v>0.3896519817642028</v>
-      </c>
-      <c r="Q23">
-        <v>2.313328659129445</v>
-      </c>
-      <c r="R23">
-        <v>20.819957932165</v>
-      </c>
-      <c r="S23">
-        <v>0.01619540653647819</v>
-      </c>
-      <c r="T23">
-        <v>0.01841051078200143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H24">
-        <v>1.102837</v>
-      </c>
-      <c r="I24">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J24">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.021228</v>
-      </c>
-      <c r="N24">
-        <v>0.063684</v>
-      </c>
-      <c r="O24">
-        <v>0.001234163109255392</v>
-      </c>
-      <c r="P24">
-        <v>0.001314433755709007</v>
-      </c>
-      <c r="Q24">
-        <v>0.007803674612000001</v>
-      </c>
-      <c r="R24">
-        <v>0.07023307150800001</v>
-      </c>
-      <c r="S24">
-        <v>5.46328263046266E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.210515527764342E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H25">
-        <v>1.102837</v>
-      </c>
-      <c r="I25">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J25">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.151199</v>
-      </c>
-      <c r="N25">
-        <v>6.302398</v>
-      </c>
-      <c r="O25">
-        <v>0.183205839255817</v>
-      </c>
-      <c r="P25">
-        <v>0.1300810984409417</v>
-      </c>
-      <c r="Q25">
-        <v>1.158419617187667</v>
-      </c>
-      <c r="R25">
-        <v>6.950517703126001</v>
-      </c>
-      <c r="S25">
-        <v>0.008109991879513523</v>
-      </c>
-      <c r="T25">
-        <v>0.006146149840014907</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H26">
-        <v>1.102837</v>
-      </c>
-      <c r="I26">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J26">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.02332</v>
-      </c>
-      <c r="O26">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="P26">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="Q26">
-        <v>0.002857573204444445</v>
-      </c>
-      <c r="R26">
-        <v>0.02571815884</v>
-      </c>
-      <c r="S26">
-        <v>2.000561380290014E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.274185385771378E-05</v>
+        <v>0.004277332920682948</v>
       </c>
     </row>
   </sheetData>
